--- a/LichThi1_212.xlsx
+++ b/LichThi1_212.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam3\Do_An\Tri_Tue_Nhan_Tao\XepLichGacThi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882AFAA4-BCEE-4091-949B-4C6B77FAD5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776DBDDB-C695-4EA8-92D4-FD45B37D06D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="35">
   <si>
     <t>Ngày thi</t>
   </si>
@@ -780,10 +780,10 @@
   <dimension ref="B6:DG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="9" topLeftCell="CP10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="DH6" sqref="DH6"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,9 +1923,7 @@
       </c>
     </row>
     <row r="11" spans="2:111" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
@@ -1958,12 +1956,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AF6:AO6"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="CR6:CZ6"/>
     <mergeCell ref="DA6:DG6"/>
     <mergeCell ref="AP6:AX6"/>
@@ -1972,6 +1964,12 @@
     <mergeCell ref="BN6:BW6"/>
     <mergeCell ref="BX6:CG6"/>
     <mergeCell ref="CH6:CQ6"/>
+    <mergeCell ref="AF6:AO6"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="Z6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.35" right="0.2" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
